--- a/train_data/meal/Female_Questionnaire_Responses.xlsx
+++ b/train_data/meal/Female_Questionnaire_Responses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\malaysia\Fertilemate\train_data\meal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADEF1EE-148A-4DE7-B931-1CD799670790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7668F943-7DA0-4765-9B58-FCA169DE8381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5341,8 +5341,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="h:mm;@"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -5437,8 +5437,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -5446,20 +5446,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -5703,8 +5703,8 @@
   <dimension ref="A1:AK276"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AJ26" sqref="AJ26"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
